--- a/files/FA/FA_AMEDIA.xlsx
+++ b/files/FA/FA_AMEDIA.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xyi17\Desktop\B.C.S\FYP\FYP-StockScreener\files\FA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="-105" windowWidth="14850" windowHeight="12735"/>
+    <workbookView xWindow="10395" yWindow="-105" windowWidth="14850" windowHeight="12735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Highlights" sheetId="2" r:id="rId1"/>
@@ -662,9 +667,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1331,7 +1336,7 @@
     <xf numFmtId="3" fontId="1" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="1" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="34" borderId="2">
@@ -1340,7 +1345,7 @@
     <xf numFmtId="3" fontId="1" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="35" borderId="2">
+    <xf numFmtId="164" fontId="1" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="35" borderId="2">
@@ -1349,7 +1354,7 @@
     <xf numFmtId="3" fontId="8" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="8" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="34" borderId="2">
@@ -1358,19 +1363,19 @@
     <xf numFmtId="3" fontId="8" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="35" borderId="2">
+    <xf numFmtId="164" fontId="8" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="11" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="35" borderId="2">
+    <xf numFmtId="164" fontId="11" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="35" borderId="2">
@@ -1405,7 +1410,7 @@
     <xf numFmtId="3" fontId="1" fillId="34" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="34" borderId="2" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="34" borderId="2" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="34" borderId="2" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1414,7 +1419,7 @@
     <xf numFmtId="3" fontId="1" fillId="35" borderId="2" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="35" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="35" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="35" borderId="2" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1423,7 +1428,7 @@
     <xf numFmtId="3" fontId="8" fillId="34" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="34" borderId="2" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="34" borderId="2" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="34" borderId="2" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1432,19 +1437,19 @@
     <xf numFmtId="3" fontId="8" fillId="35" borderId="2" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="35" borderId="2" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="35" borderId="2" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="35" borderId="2" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="34" borderId="2" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="34" borderId="2" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="34" borderId="2" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="35" borderId="2" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="35" borderId="2" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="35" borderId="2" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1528,6 +1533,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1575,7 +1583,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1608,9 +1616,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1643,6 +1668,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1821,7 +1863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2611,9 +2653,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32:L33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3066,7 +3110,7 @@
         <v>-3.4111423856133101</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>61</v>
       </c>
@@ -3101,7 +3145,7 @@
         <v>-16404.419648475501</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>69</v>
       </c>
@@ -3136,7 +3180,7 @@
         <v>-3.6699550377784398</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>61</v>
       </c>
@@ -3171,7 +3215,7 @@
         <v>-2672.3073746290602</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>71</v>
       </c>
@@ -3206,7 +3250,7 @@
         <v>-3.6697000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>61</v>
       </c>
@@ -3241,7 +3285,7 @@
         <v>-2618.2962962963002</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>73</v>
       </c>
@@ -3276,7 +3320,7 @@
         <v>-3.6697000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>61</v>
       </c>
@@ -3311,7 +3355,7 @@
         <v>-2618.2962962963002</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>75</v>
       </c>
@@ -3346,7 +3390,7 @@
         <v>-3.6697000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>61</v>
       </c>
@@ -3381,7 +3425,7 @@
         <v>-2618.2962962963002</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>77</v>
       </c>
@@ -3416,7 +3460,7 @@
         <v>-3.6697000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>61</v>
       </c>
@@ -3451,7 +3495,7 @@
         <v>-2618.2962962963002</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>79</v>
       </c>
@@ -3486,7 +3530,7 @@
         <v>-3.6697000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>61</v>
       </c>
@@ -3521,7 +3565,7 @@
         <v>-2618.2962962963002</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>81</v>
       </c>
@@ -3556,7 +3600,7 @@
         <v>-3.6697000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>61</v>
       </c>
@@ -3591,7 +3635,7 @@
         <v>-2618.2962962963002</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>83</v>
       </c>
@@ -3623,8 +3667,9 @@
         <v>0</v>
       </c>
       <c r="K32" s="17"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -3636,8 +3681,9 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="15"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>85</v>
       </c>
@@ -3672,7 +3718,7 @@
         <v>-3.65665282536295E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>61</v>
       </c>
@@ -3705,7 +3751,7 @@
       </c>
       <c r="K35" s="26"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>53</v>
       </c>
@@ -3740,7 +3786,7 @@
         <v>-4.3873119530292298E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>61</v>
       </c>
@@ -3775,7 +3821,7 @@
         <v>-378.38213018093001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3788,7 +3834,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>2</v>
       </c>
@@ -3823,7 +3869,7 @@
         <v>3.6772873428822003E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>61</v>
       </c>
@@ -3856,7 +3902,7 @@
       </c>
       <c r="K40" s="26"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>89</v>
       </c>
@@ -3891,7 +3937,7 @@
         <v>0.11617321585167199</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>61</v>
       </c>
@@ -3924,7 +3970,7 @@
       </c>
       <c r="K42" s="26"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>91</v>
       </c>
@@ -3959,7 +4005,7 @@
         <v>0.115166826742389</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>61</v>
       </c>
@@ -3992,7 +4038,7 @@
       </c>
       <c r="K44" s="26"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>55</v>
       </c>
